--- a/geo_NCdata.xlsx
+++ b/geo_NCdata.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M98"/>
+  <dimension ref="A1:O98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,10 +415,20 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>Natural Resources</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>latitude</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>longitude</t>
         </is>
@@ -461,9 +471,15 @@
         <v>99.86710060749429</v>
       </c>
       <c r="L2">
+        <v>33.92579256094123</v>
+      </c>
+      <c r="M2">
+        <v>98.21967961937149</v>
+      </c>
+      <c r="N2">
         <v>-29.2370676</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>18.8406534</v>
       </c>
     </row>
@@ -504,9 +520,15 @@
         <v>99.96473681313734</v>
       </c>
       <c r="L3">
+        <v>32.85462347356926</v>
+      </c>
+      <c r="M3">
+        <v>98.52902931593302</v>
+      </c>
+      <c r="N3">
         <v>-28.594787</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>16.482647</v>
       </c>
     </row>
@@ -547,9 +569,15 @@
         <v>99.97334869047127</v>
       </c>
       <c r="L4">
+        <v>32.62101970174313</v>
+      </c>
+      <c r="M4">
+        <v>99.67775749984698</v>
+      </c>
+      <c r="N4">
         <v>-26.9799699</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>20.7819117</v>
       </c>
     </row>
@@ -590,9 +618,15 @@
         <v>97.80895159386714</v>
       </c>
       <c r="L5">
+        <v>30.39276336473382</v>
+      </c>
+      <c r="M5">
+        <v>99.08656223489487</v>
+      </c>
+      <c r="N5">
         <v>-28.5175205</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>20.06918212992672</v>
       </c>
     </row>
@@ -633,9 +667,15 @@
         <v>84.16011662772554</v>
       </c>
       <c r="L6">
+        <v>39.77314573890087</v>
+      </c>
+      <c r="M6">
+        <v>94.48961609323399</v>
+      </c>
+      <c r="N6">
         <v>-28.535577</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>24.519864</v>
       </c>
     </row>
@@ -676,9 +716,15 @@
         <v>99.85420880563825</v>
       </c>
       <c r="L7">
+        <v>21.47121594797838</v>
+      </c>
+      <c r="M7">
+        <v>98.50612645845449</v>
+      </c>
+      <c r="N7">
         <v>-30.463333</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>20.486111</v>
       </c>
     </row>
@@ -719,9 +765,15 @@
         <v>98.48396803600882</v>
       </c>
       <c r="L8">
+        <v>37.39805313234617</v>
+      </c>
+      <c r="M8">
+        <v>97.70690391971094</v>
+      </c>
+      <c r="N8">
         <v>-30.587496</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>23.503982</v>
       </c>
     </row>
@@ -762,9 +814,15 @@
         <v>99.6156689037302</v>
       </c>
       <c r="L9">
+        <v>29.80665318529148</v>
+      </c>
+      <c r="M9">
+        <v>99.35194534761924</v>
+      </c>
+      <c r="N9">
         <v>-29.9375478</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>17.9998455</v>
       </c>
     </row>
@@ -805,9 +863,15 @@
         <v>99.23050500510379</v>
       </c>
       <c r="L10">
+        <v>27.62076811142785</v>
+      </c>
+      <c r="M10">
+        <v>94.94204411257064</v>
+      </c>
+      <c r="N10">
         <v>-31.469444</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>19.777222</v>
       </c>
     </row>
@@ -848,9 +912,15 @@
         <v>96.51669940380707</v>
       </c>
       <c r="L11">
+        <v>22.63783151536586</v>
+      </c>
+      <c r="M11">
+        <v>98.54588391468602</v>
+      </c>
+      <c r="N11">
         <v>-28.7972222</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>23.7205556</v>
       </c>
     </row>
@@ -891,9 +961,15 @@
         <v>97.48891494577131</v>
       </c>
       <c r="L12">
+        <v>28.69236398589578</v>
+      </c>
+      <c r="M12">
+        <v>98.26541805280593</v>
+      </c>
+      <c r="N12">
         <v>-30.967778</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>22.133333</v>
       </c>
     </row>
@@ -934,9 +1010,15 @@
         <v>98.14222666103542</v>
       </c>
       <c r="L13">
+        <v>27.97925561920445</v>
+      </c>
+      <c r="M13">
+        <v>99.18764980194524</v>
+      </c>
+      <c r="N13">
         <v>-29.645</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>18.0008</v>
       </c>
     </row>
@@ -977,9 +1059,15 @@
         <v>96.30043888610513</v>
       </c>
       <c r="L14">
+        <v>35.87346231330717</v>
+      </c>
+      <c r="M14">
+        <v>99.50411939357817</v>
+      </c>
+      <c r="N14">
         <v>-28.7355556</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>20.5841667</v>
       </c>
     </row>
@@ -1020,9 +1108,15 @@
         <v>89.32280543824871</v>
       </c>
       <c r="L15">
+        <v>28.71716040767853</v>
+      </c>
+      <c r="M15">
+        <v>96.64361927809156</v>
+      </c>
+      <c r="N15">
         <v>-30.721111</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>25.096667</v>
       </c>
     </row>
@@ -1063,9 +1157,15 @@
         <v>99.19919853978452</v>
       </c>
       <c r="L16">
+        <v>28.07352873723647</v>
+      </c>
+      <c r="M16">
+        <v>96.96479191917817</v>
+      </c>
+      <c r="N16">
         <v>-29.5385362</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>17.9462783</v>
       </c>
     </row>
@@ -1106,9 +1206,15 @@
         <v>92.66448388774748</v>
       </c>
       <c r="L17">
+        <v>33.7885854541569</v>
+      </c>
+      <c r="M17">
+        <v>92.44889901393387</v>
+      </c>
+      <c r="N17">
         <v>-28.1865035</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>23.5521984</v>
       </c>
     </row>
@@ -1149,9 +1255,15 @@
         <v>97.12971331268037</v>
       </c>
       <c r="L18">
+        <v>32.38084291841049</v>
+      </c>
+      <c r="M18">
+        <v>86.63408000937054</v>
+      </c>
+      <c r="N18">
         <v>-30.6505556</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>24.0075</v>
       </c>
     </row>
@@ -1191,6 +1303,12 @@
       <c r="K19">
         <v>95.40247097924727</v>
       </c>
+      <c r="L19">
+        <v>35.370615219044</v>
+      </c>
+      <c r="M19">
+        <v>97.16436548622724</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1229,9 +1347,15 @@
         <v>92.94284636767952</v>
       </c>
       <c r="L20">
+        <v>33.68479158672003</v>
+      </c>
+      <c r="M20">
+        <v>95.71433497246558</v>
+      </c>
+      <c r="N20">
         <v>-27.59311635</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>22.88608218842152</v>
       </c>
     </row>
@@ -1272,9 +1396,15 @@
         <v>79.11648700915276</v>
       </c>
       <c r="L21">
+        <v>31.5047290657635</v>
+      </c>
+      <c r="M21">
+        <v>95.45713142108349</v>
+      </c>
+      <c r="N21">
         <v>-29.054997</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>23.776591</v>
       </c>
     </row>
@@ -1315,9 +1445,15 @@
         <v>82.56721640500633</v>
       </c>
       <c r="L22">
+        <v>35.61652548352995</v>
+      </c>
+      <c r="M22">
+        <v>99.85393054762587</v>
+      </c>
+      <c r="N22">
         <v>-28.6138162</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>21.0993386</v>
       </c>
     </row>
@@ -1358,9 +1494,15 @@
         <v>99.92172973437302</v>
       </c>
       <c r="L23">
+        <v>29.65080492593486</v>
+      </c>
+      <c r="M23">
+        <v>99.87225227832539</v>
+      </c>
+      <c r="N23">
         <v>-28.824047</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>17.254935</v>
       </c>
     </row>
@@ -1401,9 +1543,15 @@
         <v>99.70207798721455</v>
       </c>
       <c r="L24">
+        <v>18.77401378537982</v>
+      </c>
+      <c r="M24">
+        <v>99.59882895554071</v>
+      </c>
+      <c r="N24">
         <v>-31.91556</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <v>21.513568</v>
       </c>
     </row>
@@ -1444,9 +1592,15 @@
         <v>86.39234561637439</v>
       </c>
       <c r="L25">
+        <v>37.28791021325665</v>
+      </c>
+      <c r="M25">
+        <v>99.90016880711174</v>
+      </c>
+      <c r="N25">
         <v>-27.97111945</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <v>24.77186602111301</v>
       </c>
     </row>
@@ -1487,9 +1641,15 @@
         <v>99.74795012172014</v>
       </c>
       <c r="L26">
+        <v>30.86453706131165</v>
+      </c>
+      <c r="M26">
+        <v>99.66986712148776</v>
+      </c>
+      <c r="N26">
         <v>-30.5607381</v>
       </c>
-      <c r="M26">
+      <c r="O26">
         <v>17.98880009599213</v>
       </c>
     </row>
@@ -1530,9 +1690,15 @@
         <v>96.51669940380707</v>
       </c>
       <c r="L27">
+        <v>23.09267750379148</v>
+      </c>
+      <c r="M27">
+        <v>98.54588391468602</v>
+      </c>
+      <c r="N27">
         <v>-28.8482043</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <v>23.2528532</v>
       </c>
     </row>
@@ -1573,9 +1739,15 @@
         <v>93.02723302243261</v>
       </c>
       <c r="L28">
+        <v>28.7600134081027</v>
+      </c>
+      <c r="M28">
+        <v>98.4028542450682</v>
+      </c>
+      <c r="N28">
         <v>-28.8958333</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <v>21.9833333</v>
       </c>
     </row>
@@ -1616,9 +1788,15 @@
         <v>99.61767112284507</v>
       </c>
       <c r="L29">
+        <v>28.00293608507192</v>
+      </c>
+      <c r="M29">
+        <v>98.78269843022918</v>
+      </c>
+      <c r="N29">
         <v>-26.74053335</v>
       </c>
-      <c r="M29">
+      <c r="O29">
         <v>20.32693678611438</v>
       </c>
     </row>
@@ -1659,9 +1837,15 @@
         <v>93.76645615181357</v>
       </c>
       <c r="L30">
+        <v>25.83896601701446</v>
+      </c>
+      <c r="M30">
+        <v>99.14450171693103</v>
+      </c>
+      <c r="N30">
         <v>-28.563611</v>
       </c>
-      <c r="M30">
+      <c r="O30">
         <v>21.748611</v>
       </c>
     </row>
@@ -1702,9 +1886,15 @@
         <v>99.70266993541922</v>
       </c>
       <c r="L31">
+        <v>23.7716162769221</v>
+      </c>
+      <c r="M31">
+        <v>99.46516709497631</v>
+      </c>
+      <c r="N31">
         <v>-31.0675</v>
       </c>
-      <c r="M31">
+      <c r="O31">
         <v>24.443611</v>
       </c>
     </row>
@@ -1745,9 +1935,15 @@
         <v>79.17440481568502</v>
       </c>
       <c r="L32">
+        <v>34.21973466396974</v>
+      </c>
+      <c r="M32">
+        <v>99.40303199727811</v>
+      </c>
+      <c r="N32">
         <v>-27.7516667</v>
       </c>
-      <c r="M32">
+      <c r="O32">
         <v>24.81</v>
       </c>
     </row>
@@ -1788,9 +1984,15 @@
         <v>99.91301528972454</v>
       </c>
       <c r="L33">
+        <v>28.20545513622455</v>
+      </c>
+      <c r="M33">
+        <v>98.35874557072178</v>
+      </c>
+      <c r="N33">
         <v>-30.3155556</v>
       </c>
-      <c r="M33">
+      <c r="O33">
         <v>17.2736111</v>
       </c>
     </row>
@@ -1831,9 +2033,15 @@
         <v>89.00754329770653</v>
       </c>
       <c r="L34">
+        <v>40.1070108168695</v>
+      </c>
+      <c r="M34">
+        <v>98.43098006023364</v>
+      </c>
+      <c r="N34">
         <v>-29.623959</v>
       </c>
-      <c r="M34">
+      <c r="O34">
         <v>24.0830094</v>
       </c>
     </row>
@@ -1874,9 +2082,15 @@
         <v>96.5577629892985</v>
       </c>
       <c r="L35">
+        <v>40.85461566288972</v>
+      </c>
+      <c r="M35">
+        <v>96.88511349620305</v>
+      </c>
+      <c r="N35">
         <v>-27.199804</v>
       </c>
-      <c r="M35">
+      <c r="O35">
         <v>22.95703</v>
       </c>
     </row>
@@ -1917,9 +2131,15 @@
         <v>79.17440481568502</v>
       </c>
       <c r="L36">
+        <v>34.21973466396974</v>
+      </c>
+      <c r="M36">
+        <v>99.34723793916754</v>
+      </c>
+      <c r="N36">
         <v>-27.9207036</v>
       </c>
-      <c r="M36">
+      <c r="O36">
         <v>24.8358954</v>
       </c>
     </row>
@@ -1960,9 +2180,15 @@
         <v>96.03845013917201</v>
       </c>
       <c r="L37">
+        <v>27.61864515782524</v>
+      </c>
+      <c r="M37">
+        <v>97.59766119621233</v>
+      </c>
+      <c r="N37">
         <v>-28.773056</v>
       </c>
-      <c r="M37">
+      <c r="O37">
         <v>20.615</v>
       </c>
     </row>
@@ -2003,9 +2229,15 @@
         <v>65.04701488220661</v>
       </c>
       <c r="L38">
+        <v>29.20538189953085</v>
+      </c>
+      <c r="M38">
+        <v>98.53902576536881</v>
+      </c>
+      <c r="N38">
         <v>-28.5517946</v>
       </c>
-      <c r="M38">
+      <c r="O38">
         <v>21.1519698</v>
       </c>
     </row>
@@ -2046,9 +2278,15 @@
         <v>99.94539189418781</v>
       </c>
       <c r="L39">
+        <v>30.03108104027341</v>
+      </c>
+      <c r="M39">
+        <v>98.4023450672664</v>
+      </c>
+      <c r="N39">
         <v>-30.2096443</v>
       </c>
-      <c r="M39">
+      <c r="O39">
         <v>17.9345442</v>
       </c>
     </row>
@@ -2089,9 +2327,15 @@
         <v>93.06302445138054</v>
       </c>
       <c r="L40">
+        <v>33.22192958897582</v>
+      </c>
+      <c r="M40">
+        <v>99.43309941845833</v>
+      </c>
+      <c r="N40">
         <v>-28.6294444</v>
       </c>
-      <c r="M40">
+      <c r="O40">
         <v>21.1136111</v>
       </c>
     </row>
@@ -2132,9 +2376,15 @@
         <v>75.53329265475685</v>
       </c>
       <c r="L41">
+        <v>38.50753423478037</v>
+      </c>
+      <c r="M41">
+        <v>93.71457639310383</v>
+      </c>
+      <c r="N41">
         <v>-27.695833</v>
       </c>
-      <c r="M41">
+      <c r="O41">
         <v>23.05</v>
       </c>
     </row>
@@ -2175,9 +2425,15 @@
         <v>93.2212580940145</v>
       </c>
       <c r="L42">
+        <v>32.9544571341868</v>
+      </c>
+      <c r="M42">
+        <v>97.60723126378167</v>
+      </c>
+      <c r="N42">
         <v>-28.708951</v>
       </c>
-      <c r="M42">
+      <c r="O42">
         <v>20.974871</v>
       </c>
     </row>
@@ -2218,9 +2474,15 @@
         <v>98.90768280242449</v>
       </c>
       <c r="L43">
+        <v>29.77278425193123</v>
+      </c>
+      <c r="M43">
+        <v>98.7805719165594</v>
+      </c>
+      <c r="N43">
         <v>-29.349254</v>
       </c>
-      <c r="M43">
+      <c r="O43">
         <v>21.155953</v>
       </c>
     </row>
@@ -2261,9 +2523,15 @@
         <v>14.99920981918082</v>
       </c>
       <c r="L44">
+        <v>49.92711948012693</v>
+      </c>
+      <c r="M44">
+        <v>1.492681174590118</v>
+      </c>
+      <c r="N44">
         <v>-28.7383012</v>
       </c>
-      <c r="M44">
+      <c r="O44">
         <v>24.7642251</v>
       </c>
     </row>
@@ -2304,9 +2572,15 @@
         <v>99.61767112284507</v>
       </c>
       <c r="L45">
+        <v>28.00293608507192</v>
+      </c>
+      <c r="M45">
+        <v>98.78269843022918</v>
+      </c>
+      <c r="N45">
         <v>-26.7388549</v>
       </c>
-      <c r="M45">
+      <c r="O45">
         <v>20.27593980919249</v>
       </c>
     </row>
@@ -2347,9 +2621,15 @@
         <v>99.99875967692351</v>
       </c>
       <c r="L46">
+        <v>34.51689295496244</v>
+      </c>
+      <c r="M46">
+        <v>98.81585506710519</v>
+      </c>
+      <c r="N46">
         <v>-29.6777778</v>
       </c>
-      <c r="M46">
+      <c r="O46">
         <v>17.0708333</v>
       </c>
     </row>
@@ -2390,9 +2670,15 @@
         <v>99.25032235680729</v>
       </c>
       <c r="L47">
+        <v>29.44421194223769</v>
+      </c>
+      <c r="M47">
+        <v>98.10390770251787</v>
+      </c>
+      <c r="N47">
         <v>-29.8002778</v>
       </c>
-      <c r="M47">
+      <c r="O47">
         <v>17.4825</v>
       </c>
     </row>
@@ -2433,9 +2719,15 @@
         <v>66.16686313814944</v>
       </c>
       <c r="L48">
+        <v>35.56040005632823</v>
+      </c>
+      <c r="M48">
+        <v>76.50607001236423</v>
+      </c>
+      <c r="N48">
         <v>-27.4504907</v>
       </c>
-      <c r="M48">
+      <c r="O48">
         <v>23.43107349157658</v>
       </c>
     </row>
@@ -2476,9 +2768,15 @@
         <v>97.78986709723048</v>
       </c>
       <c r="L49">
+        <v>24.69961530031306</v>
+      </c>
+      <c r="M49">
+        <v>99.26579674182597</v>
+      </c>
+      <c r="N49">
         <v>-28.40698735</v>
       </c>
-      <c r="M49">
+      <c r="O49">
         <v>21.52510751162765</v>
       </c>
     </row>
@@ -2519,9 +2817,15 @@
         <v>99.37768479467782</v>
       </c>
       <c r="L50">
+        <v>34.17690205890706</v>
+      </c>
+      <c r="M50">
+        <v>97.55219494436096</v>
+      </c>
+      <c r="N50">
         <v>-28.363628</v>
       </c>
-      <c r="M50">
+      <c r="O50">
         <v>23.47036</v>
       </c>
     </row>
@@ -2562,9 +2866,15 @@
         <v>99.58858526638338</v>
       </c>
       <c r="L51">
+        <v>28.84032836884</v>
+      </c>
+      <c r="M51">
+        <v>98.56621581042292</v>
+      </c>
+      <c r="N51">
         <v>-30.955278</v>
       </c>
-      <c r="M51">
+      <c r="O51">
         <v>19.443611</v>
       </c>
     </row>
@@ -2605,9 +2915,15 @@
         <v>91.92782312933494</v>
       </c>
       <c r="L52">
+        <v>35.51417415615128</v>
+      </c>
+      <c r="M52">
+        <v>99.86104130113253</v>
+      </c>
+      <c r="N52">
         <v>-28.4605556</v>
       </c>
-      <c r="M52">
+      <c r="O52">
         <v>24.3594444</v>
       </c>
     </row>
@@ -2648,9 +2964,15 @@
         <v>77.85129472277997</v>
       </c>
       <c r="L53">
+        <v>23.18397810951503</v>
+      </c>
+      <c r="M53">
+        <v>99.13095391639126</v>
+      </c>
+      <c r="N53">
         <v>-28.5731016</v>
       </c>
-      <c r="M53">
+      <c r="O53">
         <v>21.1972682</v>
       </c>
     </row>
@@ -2691,9 +3013,15 @@
         <v>99.11044481774283</v>
       </c>
       <c r="L54">
+        <v>21.91440201473063</v>
+      </c>
+      <c r="M54">
+        <v>99.62170301527961</v>
+      </c>
+      <c r="N54">
         <v>-31.4772222</v>
       </c>
-      <c r="M54">
+      <c r="O54">
         <v>22.3497222</v>
       </c>
     </row>
@@ -2734,9 +3062,15 @@
         <v>97.16479052767424</v>
       </c>
       <c r="L55">
+        <v>27.51859426284258</v>
+      </c>
+      <c r="M55">
+        <v>99.18830716378994</v>
+      </c>
+      <c r="N55">
         <v>-28.7311111</v>
       </c>
-      <c r="M55">
+      <c r="O55">
         <v>20.5036111</v>
       </c>
     </row>
@@ -2777,9 +3111,15 @@
         <v>98.65485365426245</v>
       </c>
       <c r="L56">
+        <v>28.28687985882496</v>
+      </c>
+      <c r="M56">
+        <v>99.18278247987928</v>
+      </c>
+      <c r="N56">
         <v>-29.4058998</v>
       </c>
-      <c r="M56">
+      <c r="O56">
         <v>22.1050949</v>
       </c>
     </row>
@@ -2820,9 +3160,15 @@
         <v>92.39767731421347</v>
       </c>
       <c r="L57">
+        <v>33.74157797768959</v>
+      </c>
+      <c r="M57">
+        <v>98.93824546901803</v>
+      </c>
+      <c r="N57">
         <v>-29.573402</v>
       </c>
-      <c r="M57">
+      <c r="O57">
         <v>21.2051361</v>
       </c>
     </row>
@@ -2863,9 +3209,15 @@
         <v>98.49057906272915</v>
       </c>
       <c r="L58">
+        <v>28.90440969655673</v>
+      </c>
+      <c r="M58">
+        <v>96.72991013906646</v>
+      </c>
+      <c r="N58">
         <v>-29.5886111</v>
       </c>
-      <c r="M58">
+      <c r="O58">
         <v>17.7880556</v>
       </c>
     </row>
@@ -2906,9 +3258,15 @@
         <v>99.49005586382766</v>
       </c>
       <c r="L59">
+        <v>29.82537259571466</v>
+      </c>
+      <c r="M59">
+        <v>99.46152092519485</v>
+      </c>
+      <c r="N59">
         <v>-29.329167</v>
       </c>
-      <c r="M59">
+      <c r="O59">
         <v>22.838333</v>
       </c>
     </row>
@@ -2949,9 +3307,15 @@
         <v>99.85523175545596</v>
       </c>
       <c r="L60">
+        <v>36.42461369794462</v>
+      </c>
+      <c r="M60">
+        <v>98.90637379417463</v>
+      </c>
+      <c r="N60">
         <v>-31.375688</v>
       </c>
-      <c r="M60">
+      <c r="O60">
         <v>19.112587</v>
       </c>
     </row>
@@ -2992,9 +3356,15 @@
         <v>99.06608380606022</v>
       </c>
       <c r="L61">
+        <v>27.41888477022449</v>
+      </c>
+      <c r="M61">
+        <v>99.7616512089599</v>
+      </c>
+      <c r="N61">
         <v>-30.630683</v>
       </c>
-      <c r="M61">
+      <c r="O61">
         <v>25.453749</v>
       </c>
     </row>
@@ -3035,9 +3405,15 @@
         <v>98.86852525661865</v>
       </c>
       <c r="L62">
+        <v>29.17306689381667</v>
+      </c>
+      <c r="M62">
+        <v>98.43859656754373</v>
+      </c>
+      <c r="N62">
         <v>-31.179983</v>
       </c>
-      <c r="M62">
+      <c r="O62">
         <v>24.95158</v>
       </c>
     </row>
@@ -3078,9 +3454,15 @@
         <v>78.24567480701839</v>
       </c>
       <c r="L63">
+        <v>34.23858430571175</v>
+      </c>
+      <c r="M63">
+        <v>94.41137921868155</v>
+      </c>
+      <c r="N63">
         <v>-27.94426165</v>
       </c>
-      <c r="M63">
+      <c r="O63">
         <v>22.74787936346776</v>
       </c>
     </row>
@@ -3120,6 +3502,12 @@
       <c r="K64">
         <v>55.48711384916255</v>
       </c>
+      <c r="L64">
+        <v>22.76726914561415</v>
+      </c>
+      <c r="M64">
+        <v>99.90203272935597</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3158,9 +3546,15 @@
         <v>97.02462050969946</v>
       </c>
       <c r="L65">
+        <v>23.4326165488355</v>
+      </c>
+      <c r="M65">
+        <v>98.35505322921593</v>
+      </c>
+      <c r="N65">
         <v>-28.7404196</v>
       </c>
-      <c r="M65">
+      <c r="O65">
         <v>19.3048747</v>
       </c>
     </row>
@@ -3201,9 +3595,15 @@
         <v>99.90614094538648</v>
       </c>
       <c r="L66">
+        <v>36.01011113667965</v>
+      </c>
+      <c r="M66">
+        <v>99.78590371192271</v>
+      </c>
+      <c r="N66">
         <v>-29.8188619</v>
       </c>
-      <c r="M66">
+      <c r="O66">
         <v>24.4124127</v>
       </c>
     </row>
@@ -3244,9 +3644,15 @@
         <v>83.24802602186068</v>
       </c>
       <c r="L67">
+        <v>34.91099583824713</v>
+      </c>
+      <c r="M67">
+        <v>99.93552687031207</v>
+      </c>
+      <c r="N67">
         <v>-27.7766667</v>
       </c>
-      <c r="M67">
+      <c r="O67">
         <v>24.6894444</v>
       </c>
     </row>
@@ -3287,9 +3693,15 @@
         <v>97.02462050969946</v>
       </c>
       <c r="L68">
+        <v>26.96678280395474</v>
+      </c>
+      <c r="M68">
+        <v>98.05597199816428</v>
+      </c>
+      <c r="N68">
         <v>-29.031701</v>
       </c>
-      <c r="M68">
+      <c r="O68">
         <v>19.153028</v>
       </c>
     </row>
@@ -3330,9 +3742,15 @@
         <v>97.90980396052856</v>
       </c>
       <c r="L69">
+        <v>26.49006062078136</v>
+      </c>
+      <c r="M69">
+        <v>99.05411879739681</v>
+      </c>
+      <c r="N69">
         <v>-30.080711</v>
       </c>
-      <c r="M69">
+      <c r="O69">
         <v>24.65881</v>
       </c>
     </row>
@@ -3373,9 +3791,15 @@
         <v>99.67849562102332</v>
       </c>
       <c r="L70">
+        <v>26.11184138222856</v>
+      </c>
+      <c r="M70">
+        <v>99.42612167600424</v>
+      </c>
+      <c r="N70">
         <v>-26.81288275</v>
       </c>
-      <c r="M70">
+      <c r="O70">
         <v>20.09339132569262</v>
       </c>
     </row>
@@ -3415,6 +3839,12 @@
       <c r="K71">
         <v>99.92566630062304</v>
       </c>
+      <c r="L71">
+        <v>25.21097113631541</v>
+      </c>
+      <c r="M71">
+        <v>99.79202220206342</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3453,9 +3883,15 @@
         <v>99.84233334938439</v>
       </c>
       <c r="L72">
+        <v>33.99485615879384</v>
+      </c>
+      <c r="M72">
+        <v>99.86562772951517</v>
+      </c>
+      <c r="N72">
         <v>-29.0272792</v>
       </c>
-      <c r="M72">
+      <c r="O72">
         <v>24.238515</v>
       </c>
     </row>
@@ -3496,9 +3932,15 @@
         <v>98.37267607696204</v>
       </c>
       <c r="L73">
+        <v>26.456348315575</v>
+      </c>
+      <c r="M73">
+        <v>97.41294735140323</v>
+      </c>
+      <c r="N73">
         <v>-29.128333</v>
       </c>
-      <c r="M73">
+      <c r="O73">
         <v>19.395833</v>
       </c>
     </row>
@@ -3539,9 +3981,15 @@
         <v>99.67311385580402</v>
       </c>
       <c r="L74">
+        <v>27.46763599546199</v>
+      </c>
+      <c r="M74">
+        <v>98.50338630684283</v>
+      </c>
+      <c r="N74">
         <v>-29.248889</v>
       </c>
-      <c r="M74">
+      <c r="O74">
         <v>16.870833</v>
       </c>
     </row>
@@ -3582,9 +4030,15 @@
         <v>72.90764928223251</v>
       </c>
       <c r="L75">
+        <v>32.85637485568559</v>
+      </c>
+      <c r="M75">
+        <v>91.32099854779187</v>
+      </c>
+      <c r="N75">
         <v>-28.326667</v>
       </c>
-      <c r="M75">
+      <c r="O75">
         <v>23.068889</v>
       </c>
     </row>
@@ -3625,9 +4079,15 @@
         <v>93.1212500636797</v>
       </c>
       <c r="L76">
+        <v>28.46320233267613</v>
+      </c>
+      <c r="M76">
+        <v>95.56323140562509</v>
+      </c>
+      <c r="N76">
         <v>-29.666286</v>
       </c>
-      <c r="M76">
+      <c r="O76">
         <v>22.74439</v>
       </c>
     </row>
@@ -3668,9 +4128,15 @@
         <v>99.61767112284507</v>
       </c>
       <c r="L77">
+        <v>28.82793608507192</v>
+      </c>
+      <c r="M77">
+        <v>98.78269843022918</v>
+      </c>
+      <c r="N77">
         <v>-28.4504182</v>
       </c>
-      <c r="M77">
+      <c r="O77">
         <v>20.3090286</v>
       </c>
     </row>
@@ -3711,9 +4177,15 @@
         <v>99.61767112284507</v>
       </c>
       <c r="L78">
+        <v>27.47793608507192</v>
+      </c>
+      <c r="M78">
+        <v>98.78269843022918</v>
+      </c>
+      <c r="N78">
         <v>-26.7431627</v>
       </c>
-      <c r="M78">
+      <c r="O78">
         <v>20.02744169745719</v>
       </c>
     </row>
@@ -3754,9 +4226,15 @@
         <v>75.38586848492771</v>
       </c>
       <c r="L79">
+        <v>41.33959539484298</v>
+      </c>
+      <c r="M79">
+        <v>93.50299267368108</v>
+      </c>
+      <c r="N79">
         <v>-29.0274941</v>
       </c>
-      <c r="M79">
+      <c r="O79">
         <v>24.5999951</v>
       </c>
     </row>
@@ -3797,9 +4275,15 @@
         <v>99.83945019083724</v>
       </c>
       <c r="L80">
+        <v>35.3816822618333</v>
+      </c>
+      <c r="M80">
+        <v>99.38624673672338</v>
+      </c>
+      <c r="N80">
         <v>-27.1209625</v>
       </c>
-      <c r="M80">
+      <c r="O80">
         <v>22.8354562</v>
       </c>
     </row>
@@ -3839,6 +4323,12 @@
       <c r="K81">
         <v>92.95887415655987</v>
       </c>
+      <c r="L81">
+        <v>28.81076788402821</v>
+      </c>
+      <c r="M81">
+        <v>99.67461770264245</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3877,9 +4367,15 @@
         <v>97.23598586672738</v>
       </c>
       <c r="L82">
+        <v>31.44020055093503</v>
+      </c>
+      <c r="M82">
+        <v>92.21786765324171</v>
+      </c>
+      <c r="N82">
         <v>-29.6659872</v>
       </c>
-      <c r="M82">
+      <c r="O82">
         <v>17.8825119</v>
       </c>
     </row>
@@ -3920,9 +4416,15 @@
         <v>99.77997478071835</v>
       </c>
       <c r="L83">
+        <v>34.0229457013595</v>
+      </c>
+      <c r="M83">
+        <v>95.22812715120193</v>
+      </c>
+      <c r="N83">
         <v>-29.2625</v>
       </c>
-      <c r="M83">
+      <c r="O83">
         <v>17.7333333</v>
       </c>
     </row>
@@ -3963,9 +4465,15 @@
         <v>87.86656189847801</v>
       </c>
       <c r="L84">
+        <v>22.43997077920365</v>
+      </c>
+      <c r="M84">
+        <v>99.76110523052905</v>
+      </c>
+      <c r="N84">
         <v>-28.4422289</v>
       </c>
-      <c r="M84">
+      <c r="O84">
         <v>21.3281039</v>
       </c>
     </row>
@@ -4006,9 +4514,15 @@
         <v>97.99176447189426</v>
       </c>
       <c r="L85">
+        <v>33.1857480763974</v>
+      </c>
+      <c r="M85">
+        <v>99.54321027679511</v>
+      </c>
+      <c r="N85">
         <v>-29.944282</v>
       </c>
-      <c r="M85">
+      <c r="O85">
         <v>23.675855</v>
       </c>
     </row>
@@ -4049,9 +4563,15 @@
         <v>99.49851553437534</v>
       </c>
       <c r="L86">
+        <v>23.60487942326429</v>
+      </c>
+      <c r="M86">
+        <v>99.62439053083971</v>
+      </c>
+      <c r="N86">
         <v>-32.393889</v>
       </c>
-      <c r="M86">
+      <c r="O86">
         <v>20.661111</v>
       </c>
     </row>
@@ -4092,9 +4612,15 @@
         <v>99.21373255187969</v>
       </c>
       <c r="L87">
+        <v>31.701758535638</v>
+      </c>
+      <c r="M87">
+        <v>99.51926319957883</v>
+      </c>
+      <c r="N87">
         <v>-28.3297222</v>
       </c>
-      <c r="M87">
+      <c r="O87">
         <v>24.2080556</v>
       </c>
     </row>
@@ -4135,9 +4661,15 @@
         <v>57.89603705949244</v>
       </c>
       <c r="L88">
+        <v>31.37751379658103</v>
+      </c>
+      <c r="M88">
+        <v>64.12278352085377</v>
+      </c>
+      <c r="N88">
         <v>-28.456325</v>
       </c>
-      <c r="M88">
+      <c r="O88">
         <v>21.241867</v>
       </c>
     </row>
@@ -4178,9 +4710,15 @@
         <v>99.8301546071892</v>
       </c>
       <c r="L89">
+        <v>24.75727304804261</v>
+      </c>
+      <c r="M89">
+        <v>99.54858376967775</v>
+      </c>
+      <c r="N89">
         <v>-30.3513889</v>
       </c>
-      <c r="M89">
+      <c r="O89">
         <v>21.8241667</v>
       </c>
     </row>
@@ -4221,9 +4759,15 @@
         <v>99.52446013269733</v>
       </c>
       <c r="L90">
+        <v>29.05508062578417</v>
+      </c>
+      <c r="M90">
+        <v>99.22305222741284</v>
+      </c>
+      <c r="N90">
         <v>-26.87696445</v>
       </c>
-      <c r="M90">
+      <c r="O90">
         <v>22.05108577574266</v>
       </c>
     </row>
@@ -4264,9 +4808,15 @@
         <v>98.95193613808389</v>
       </c>
       <c r="L91">
+        <v>30.71049167630528</v>
+      </c>
+      <c r="M91">
+        <v>99.9241020101438</v>
+      </c>
+      <c r="N91">
         <v>-29.998169</v>
       </c>
-      <c r="M91">
+      <c r="O91">
         <v>24.7401268</v>
       </c>
     </row>
@@ -4307,9 +4857,15 @@
         <v>94.12619527870739</v>
       </c>
       <c r="L92">
+        <v>31.81155080350049</v>
+      </c>
+      <c r="M92">
+        <v>97.0625933096123</v>
+      </c>
+      <c r="N92">
         <v>-31.403055</v>
       </c>
-      <c r="M92">
+      <c r="O92">
         <v>23.120556</v>
       </c>
     </row>
@@ -4350,9 +4906,15 @@
         <v>99.61743595444474</v>
       </c>
       <c r="L93">
+        <v>26.41567454395571</v>
+      </c>
+      <c r="M93">
+        <v>99.63489878739112</v>
+      </c>
+      <c r="N93">
         <v>-28.770794</v>
       </c>
-      <c r="M93">
+      <c r="O93">
         <v>17.625584</v>
       </c>
     </row>
@@ -4393,9 +4955,15 @@
         <v>99.62794620140922</v>
       </c>
       <c r="L94">
+        <v>27.63221606155812</v>
+      </c>
+      <c r="M94">
+        <v>99.6697658140757</v>
+      </c>
+      <c r="N94">
         <v>-30.575136</v>
       </c>
-      <c r="M94">
+      <c r="O94">
         <v>22.879661</v>
       </c>
     </row>
@@ -4436,9 +5004,15 @@
         <v>90.91534485984904</v>
       </c>
       <c r="L95">
+        <v>39.49931341790933</v>
+      </c>
+      <c r="M95">
+        <v>94.95039721622803</v>
+      </c>
+      <c r="N95">
         <v>-28.1113889</v>
       </c>
-      <c r="M95">
+      <c r="O95">
         <v>24.8497222</v>
       </c>
     </row>
@@ -4479,9 +5053,15 @@
         <v>94.52719807022884</v>
       </c>
       <c r="L96">
+        <v>28.09145316288931</v>
+      </c>
+      <c r="M96">
+        <v>99.29199026781173</v>
+      </c>
+      <c r="N96">
         <v>-28.8368766</v>
       </c>
-      <c r="M96">
+      <c r="O96">
         <v>21.866677</v>
       </c>
     </row>
@@ -4522,9 +5102,15 @@
         <v>99.86606913109161</v>
       </c>
       <c r="L97">
+        <v>25.22427978512753</v>
+      </c>
+      <c r="M97">
+        <v>99.55393064452332</v>
+      </c>
+      <c r="N97">
         <v>-31.33903</v>
       </c>
-      <c r="M97">
+      <c r="O97">
         <v>20.916172</v>
       </c>
     </row>
@@ -4565,9 +5151,15 @@
         <v>97.15523988333098</v>
       </c>
       <c r="L98">
+        <v>37.76586903486764</v>
+      </c>
+      <c r="M98">
+        <v>98.28699828812297</v>
+      </c>
+      <c r="N98">
         <v>-28.3322222</v>
       </c>
-      <c r="M98">
+      <c r="O98">
         <v>24.7161111</v>
       </c>
     </row>
